--- a/reports/Debug-snowbowl-20251217/For Winter Ending (Actual)_Budget.xlsx
+++ b/reports/Debug-snowbowl-20251217/For Winter Ending (Actual)_Budget.xlsx
@@ -19,6 +19,69 @@
     <t>Department</t>
   </si>
   <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>99200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D5113</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
     <t>D1000</t>
   </si>
   <si>
@@ -34,13 +97,25 @@
     <t>D6790</t>
   </si>
   <si>
-    <t>99200</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D8050</t>
+    <t>99150</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D8040</t>
   </si>
   <si>
     <t>99100</t>
@@ -61,99 +136,87 @@
     <t>D8020</t>
   </si>
   <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>99150</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>D5113</t>
-  </si>
-  <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>Payroll</t>
   </si>
   <si>
+    <t>Visits</t>
+  </si>
+  <si>
     <t>Revenue</t>
   </si>
   <si>
-    <t>Visits</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
     <t>DepartmentTitle</t>
   </si>
   <si>
+    <t>Lift Maintenance</t>
+  </si>
+  <si>
+    <t>Trail Maintenance</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>Winter Season Pass Visits  - Home Resort</t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t>Risk Management</t>
+  </si>
+  <si>
+    <t>Lift Operations</t>
+  </si>
+  <si>
+    <t>Terrain Park</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>IT Services</t>
+  </si>
+  <si>
+    <t>Snowmaking</t>
+  </si>
+  <si>
+    <t>Agassiz Retail</t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t>Janitorial</t>
+  </si>
+  <si>
+    <t>Rental Repair Shop</t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
     <t>Mountain G&amp;A</t>
   </si>
   <si>
@@ -169,13 +232,25 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>Winter Season Pass Visits  - Home Resort</t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t>Risk Management</t>
+    <t>Comp Tickets</t>
+  </si>
+  <si>
+    <t>Vehicle Maintenance</t>
+  </si>
+  <si>
+    <t>F&amp;B Admin</t>
+  </si>
+  <si>
+    <t>Facilities Maintenance</t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>HR</t>
   </si>
   <si>
     <t>Daily Winter Ticketed</t>
@@ -194,81 +269,6 @@
   </si>
   <si>
     <t>Accounting</t>
-  </si>
-  <si>
-    <t>Lift Operations</t>
-  </si>
-  <si>
-    <t>Terrain Park</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
-  </si>
-  <si>
-    <t>Tickets</t>
-  </si>
-  <si>
-    <t>Parking</t>
-  </si>
-  <si>
-    <t>IT Services</t>
-  </si>
-  <si>
-    <t>Comp Tickets</t>
-  </si>
-  <si>
-    <t>Vehicle Maintenance</t>
-  </si>
-  <si>
-    <t>F&amp;B Admin</t>
-  </si>
-  <si>
-    <t>Facilities Maintenance</t>
-  </si>
-  <si>
-    <t>General Administration</t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Rental Repair Shop</t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t>Snowmaking</t>
-  </si>
-  <si>
-    <t>Agassiz Retail</t>
-  </si>
-  <si>
-    <t>Fort Valley Lodge</t>
-  </si>
-  <si>
-    <t>Fremont Restaurant</t>
-  </si>
-  <si>
-    <t>Janitorial</t>
-  </si>
-  <si>
-    <t>Lift Maintenance</t>
-  </si>
-  <si>
-    <t>Trail Maintenance</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="2">
-        <v>42850.84</v>
+        <v>56229.59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>46</v>
@@ -679,7 +679,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="2">
-        <v>22667.20</v>
+        <v>38777.43</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
@@ -687,44 +687,44 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
-        <v>212826.18</v>
+        <v>13755.38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
-        <v>11752.82</v>
+        <v>16325.00</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="2">
-        <v>17805.50</v>
+        <v>50811.80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -732,10 +732,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2">
-        <v>14368.74</v>
+        <v>282624.65</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>50</v>
@@ -746,10 +746,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
-        <v>16325.00</v>
+        <v>6785.86</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>51</v>
@@ -763,7 +763,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="2">
-        <v>50811.80</v>
+        <v>91119.56</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>52</v>
@@ -771,44 +771,44 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
-        <v>282624.65</v>
+        <v>16597.40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2">
-        <v>6785.86</v>
+        <v>80255.59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2">
-        <v>20450.00</v>
+        <v>55654.97</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -816,10 +816,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2">
-        <v>111311.37</v>
+        <v>1888575.00</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>55</v>
@@ -827,114 +827,114 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2">
-        <v>202378.00</v>
+        <v>10875.99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2">
-        <v>434503.00</v>
+        <v>31425.87</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="2">
-        <v>50930.36</v>
+        <v>119918.00</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2">
-        <v>25651.08</v>
+        <v>21226.46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
-        <v>69744.08</v>
+        <v>4918.32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
-        <v>25395.35</v>
+        <v>3600.80</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>40702.07</v>
+        <v>7261.50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="2">
-        <v>91119.56</v>
+        <v>4303.73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -942,10 +942,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
-        <v>16597.40</v>
+        <v>0.00</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>61</v>
@@ -959,7 +959,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="2">
-        <v>80255.59</v>
+        <v>22820.44</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>62</v>
@@ -973,7 +973,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="2">
-        <v>55654.97</v>
+        <v>13898.85</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>63</v>
@@ -984,10 +984,10 @@
         <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2">
-        <v>1888575.00</v>
+        <v>19784.00</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>63</v>
@@ -1001,7 +1001,7 @@
         <v>41</v>
       </c>
       <c r="C26" s="2">
-        <v>10875.99</v>
+        <v>42525.20</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>64</v>
@@ -1009,170 +1009,170 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2">
-        <v>31425.87</v>
+        <v>147965.40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2">
-        <v>2000.00</v>
+        <v>17425.47</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>30805.00</v>
+        <v>42183.12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="2">
-        <v>42944.37</v>
+        <v>13413.61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="2">
-        <v>33233.29</v>
+        <v>42850.84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="2">
-        <v>27521.78</v>
+        <v>22667.20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2">
-        <v>12292.00</v>
+        <v>212826.18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="2">
-        <v>39798.66</v>
+        <v>11752.82</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="2">
-        <v>21697.03</v>
+        <v>17805.50</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2">
-        <v>13898.85</v>
+        <v>14368.74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="2">
-        <v>19784.00</v>
+        <v>2000.00</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="2">
-        <v>42525.20</v>
+        <v>30805.00</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1180,10 +1180,10 @@
         <v>29</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2">
-        <v>147965.40</v>
+        <v>42944.37</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>74</v>
@@ -1197,7 +1197,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="2">
-        <v>17425.47</v>
+        <v>33233.29</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>75</v>
@@ -1205,16 +1205,16 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2">
-        <v>42183.12</v>
+        <v>27521.78</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1222,10 +1222,10 @@
         <v>31</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2">
-        <v>13413.61</v>
+        <v>12292.00</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>76</v>
@@ -1239,7 +1239,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="2">
-        <v>119918.00</v>
+        <v>39798.66</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>77</v>
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2">
-        <v>21226.46</v>
+        <v>21697.03</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>78</v>
@@ -1261,86 +1261,86 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2">
-        <v>4918.32</v>
+        <v>20450.00</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2">
-        <v>3600.80</v>
+        <v>111311.37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2">
-        <v>7261.50</v>
+        <v>202378.00</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2">
-        <v>4303.73</v>
+        <v>434503.00</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2">
-        <v>0.00</v>
+        <v>50930.36</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="2">
-        <v>22820.44</v>
+        <v>25651.08</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1348,10 +1348,10 @@
         <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2">
-        <v>56229.59</v>
+        <v>69744.08</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>82</v>
@@ -1365,7 +1365,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="2">
-        <v>38777.43</v>
+        <v>25395.35</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>83</v>
@@ -1379,7 +1379,7 @@
         <v>41</v>
       </c>
       <c r="C53" s="2">
-        <v>13755.38</v>
+        <v>40702.07</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>84</v>
